--- a/lib/PHPExcel/templates/OT_.MA.xlsx
+++ b/lib/PHPExcel/templates/OT_.MA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">PO - </t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Qtty / Comments / add. Process</t>
+  </si>
+  <si>
+    <t>Instructions</t>
   </si>
 </sst>
 </file>
@@ -459,6 +462,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -499,66 +562,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -1541,10 +1544,10 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1556,8 +1559,8 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -1569,8 +1572,8 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -1582,10 +1585,10 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1618,34 +1621,34 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="12"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="16"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -1662,28 +1665,28 @@
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="A13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
@@ -1695,58 +1698,52 @@
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="39"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="56"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="F17:H17"/>
     <mergeCell ref="A9:F11"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A13:I13"/>
@@ -1754,6 +1751,12 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I5"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="F17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
